--- a/Results/Categorization/plsa-partial-ner-elmo_ori.xlsx
+++ b/Results/Categorization/plsa-partial-ner-elmo_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1772">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
@@ -4078,7 +4078,10 @@
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
@@ -4159,180 +4162,183 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
     <t>SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
@@ -4357,7 +4363,7 @@
     <t>FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|FOOD</t>
@@ -4384,7 +4390,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4453,10 +4459,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4531,6 +4537,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4576,7 +4585,7 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
+    <t>moules|lobster|ravioli</t>
   </si>
   <si>
     <t>price</t>
@@ -4609,9 +4618,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4624,7 +4630,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4645,7 +4651,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4654,6 +4660,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4669,13 +4678,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4693,7 +4705,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4702,7 +4717,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4729,222 +4744,225 @@
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -4978,7 +4996,7 @@
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
@@ -5059,7 +5077,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5068,7 +5086,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -5077,7 +5095,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -5161,7 +5179,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -5194,7 +5212,7 @@
     <t>service|rude|even|well</t>
   </si>
   <si>
-    <t>service|great|good</t>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
@@ -5204,6 +5222,9 @@
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5715,10 +5736,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="H2" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5744,7 +5765,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5767,10 +5788,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="H4" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5793,10 +5814,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="H5" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5819,10 +5840,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="H6" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5845,10 +5866,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="H7" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5871,10 +5892,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="H8" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5897,10 +5918,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="H9" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5923,10 +5944,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="H10" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5949,10 +5970,10 @@
         <v>1294</v>
       </c>
       <c r="G11" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H11" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5978,7 +5999,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6001,10 +6022,10 @@
         <v>1294</v>
       </c>
       <c r="G13" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H13" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6027,10 +6048,10 @@
         <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="H14" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6053,10 +6074,10 @@
         <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="H15" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6079,10 +6100,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="H16" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6105,10 +6126,10 @@
         <v>1343</v>
       </c>
       <c r="G17" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="H17" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6131,10 +6152,10 @@
         <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="H18" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6160,7 +6181,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6183,10 +6204,10 @@
         <v>1346</v>
       </c>
       <c r="G20" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="H20" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6212,7 +6233,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6238,7 +6259,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6261,10 +6282,10 @@
         <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="H23" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6287,10 +6308,10 @@
         <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="H24" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6316,7 +6337,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6342,7 +6363,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6368,7 +6389,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6391,10 +6412,10 @@
         <v>1285</v>
       </c>
       <c r="G28" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="H28" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6417,10 +6438,10 @@
         <v>1348</v>
       </c>
       <c r="G29" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="H29" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6443,10 +6464,10 @@
         <v>1349</v>
       </c>
       <c r="G30" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="H30" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6469,10 +6490,10 @@
         <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="H31" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6498,7 +6519,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6521,10 +6542,10 @@
         <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="H33" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6547,10 +6568,10 @@
         <v>1351</v>
       </c>
       <c r="G34" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="H34" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6573,10 +6594,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H35" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6599,10 +6620,10 @@
         <v>1346</v>
       </c>
       <c r="G36" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="H36" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6625,10 +6646,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="H37" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6651,10 +6672,10 @@
         <v>1352</v>
       </c>
       <c r="G38" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="H38" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6677,10 +6698,10 @@
         <v>1353</v>
       </c>
       <c r="G39" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="H39" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6700,13 +6721,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="G40" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="H40" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6726,13 +6747,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="H41" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6752,13 +6773,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="H42" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6778,13 +6799,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="H43" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6810,7 +6831,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6836,7 +6857,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6862,7 +6883,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6885,10 +6906,10 @@
         <v>1352</v>
       </c>
       <c r="G47" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="H47" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6908,13 +6929,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G48" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="H48" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6934,13 +6955,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G49" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H49" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6963,10 +6984,10 @@
         <v>1285</v>
       </c>
       <c r="G50" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="H50" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6986,13 +7007,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G51" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="H51" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7012,13 +7033,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G52" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="H52" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7041,10 +7062,10 @@
         <v>1343</v>
       </c>
       <c r="G53" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="H53" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7064,13 +7085,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G54" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="H54" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7090,13 +7111,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="H55" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7116,13 +7137,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="H56" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7142,13 +7163,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="H57" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7168,13 +7189,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G58" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H58" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7194,13 +7215,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="H59" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7223,10 +7244,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="H60" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7252,7 +7273,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7272,13 +7293,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="H62" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7298,13 +7319,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G63" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H63" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7327,10 +7348,10 @@
         <v>1351</v>
       </c>
       <c r="G64" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="H64" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7353,10 +7374,10 @@
         <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="H65" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7379,10 +7400,10 @@
         <v>1343</v>
       </c>
       <c r="G66" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="H66" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7405,10 +7426,10 @@
         <v>1352</v>
       </c>
       <c r="G67" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="H67" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7434,7 +7455,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7457,10 +7478,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="H69" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7483,10 +7504,10 @@
         <v>1285</v>
       </c>
       <c r="G70" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="H70" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7512,7 +7533,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7532,13 +7553,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G72" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H72" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7561,10 +7582,10 @@
         <v>1342</v>
       </c>
       <c r="G73" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="H73" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7584,13 +7605,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G74" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H74" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7616,7 +7637,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7636,13 +7657,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1507</v>
       </c>
       <c r="H76" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7665,10 +7686,10 @@
         <v>1285</v>
       </c>
       <c r="G77" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="H77" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7691,10 +7712,10 @@
         <v>1339</v>
       </c>
       <c r="G78" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H78" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7714,13 +7735,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G79" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H79" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7743,10 +7764,10 @@
         <v>1338</v>
       </c>
       <c r="G80" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H80" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7769,10 +7790,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H81" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7792,13 +7813,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G82" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H82" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7824,7 +7845,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7850,7 +7871,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7873,10 +7894,10 @@
         <v>1285</v>
       </c>
       <c r="G85" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="H85" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7899,10 +7920,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="H86" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7925,10 +7946,10 @@
         <v>1352</v>
       </c>
       <c r="G87" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="H87" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7948,13 +7969,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G88" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H88" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7977,10 +7998,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H89" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8006,7 +8027,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8026,13 +8047,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G91" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H91" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8055,10 +8076,10 @@
         <v>1338</v>
       </c>
       <c r="G92" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="H92" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8078,13 +8099,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G93" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="H93" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8104,13 +8125,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G94" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="H94" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8130,13 +8151,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G95" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H95" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8159,10 +8180,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="H96" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8182,13 +8203,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G97" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="H97" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8211,10 +8232,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="H98" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8237,10 +8258,10 @@
         <v>1294</v>
       </c>
       <c r="G99" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H99" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8260,13 +8281,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G100" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="H100" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8289,10 +8310,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H101" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8315,10 +8336,10 @@
         <v>1343</v>
       </c>
       <c r="G102" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="H102" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8344,7 +8365,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8364,13 +8385,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G104" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="H104" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8396,7 +8417,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8416,13 +8437,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G106" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="H106" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8442,13 +8463,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G107" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="H107" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8468,13 +8489,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G108" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H108" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8497,10 +8518,10 @@
         <v>1294</v>
       </c>
       <c r="G109" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H109" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8523,10 +8544,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="H110" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8549,10 +8570,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H111" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8572,13 +8593,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G112" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="H112" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8598,13 +8619,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1343</v>
+        <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>1531</v>
+        <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8630,7 +8651,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8650,13 +8671,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G115" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="H115" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8676,13 +8697,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G116" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="H116" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8702,13 +8723,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G117" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H117" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8728,13 +8749,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G118" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="H118" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8754,13 +8775,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G119" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="H119" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8786,7 +8807,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8812,7 +8833,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8838,7 +8859,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8864,7 +8885,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8884,13 +8905,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G124" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="H124" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8913,10 +8934,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="H125" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8942,7 +8963,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8965,10 +8986,10 @@
         <v>1294</v>
       </c>
       <c r="G127" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H127" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8991,10 +9012,10 @@
         <v>1346</v>
       </c>
       <c r="G128" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H128" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9014,13 +9035,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G129" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="H129" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9040,13 +9061,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G130" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="H130" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9069,10 +9090,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H131" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9092,13 +9113,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1383</v>
+        <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="H132" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9118,13 +9139,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G133" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="H133" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9147,10 +9168,10 @@
         <v>1343</v>
       </c>
       <c r="G134" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="H134" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9170,13 +9191,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1285</v>
+        <v>1339</v>
       </c>
       <c r="G135" t="s">
-        <v>1065</v>
+        <v>1548</v>
       </c>
       <c r="H135" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9199,10 +9220,10 @@
         <v>1285</v>
       </c>
       <c r="G136" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="H136" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9222,13 +9243,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G137" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H137" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9251,10 +9272,10 @@
         <v>1352</v>
       </c>
       <c r="G138" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="H138" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9274,13 +9295,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G139" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H139" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9300,13 +9321,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G140" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H140" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9332,7 +9353,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9352,13 +9373,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G142" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H142" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9378,13 +9399,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G143" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H143" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9404,13 +9425,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1371</v>
+        <v>1387</v>
       </c>
       <c r="G144" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="H144" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9430,13 +9451,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1278</v>
+        <v>1372</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>1555</v>
       </c>
       <c r="H145" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9456,13 +9477,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G146" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H146" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9488,7 +9509,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9511,10 +9532,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="H148" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9534,13 +9555,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1386</v>
+        <v>1356</v>
       </c>
       <c r="G149" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="H149" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9560,13 +9581,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G150" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="H150" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9586,13 +9607,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G151" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="H151" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9615,10 +9636,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="H152" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9638,13 +9659,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G153" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="H153" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9664,13 +9685,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G154" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="H154" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9690,13 +9711,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1372</v>
       </c>
       <c r="G155" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="H155" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9716,13 +9737,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1278</v>
+        <v>1372</v>
       </c>
       <c r="G156" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="H156" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9745,10 +9766,10 @@
         <v>1294</v>
       </c>
       <c r="G157" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H157" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9771,10 +9792,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H158" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9797,10 +9818,10 @@
         <v>1343</v>
       </c>
       <c r="G159" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="H159" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9823,10 +9844,10 @@
         <v>1343</v>
       </c>
       <c r="G160" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H160" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9845,8 +9866,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9866,13 +9893,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="G162" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H162" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9898,7 +9925,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9921,10 +9948,10 @@
         <v>1343</v>
       </c>
       <c r="G164" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H164" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9944,13 +9971,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G165" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="H165" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9973,10 +10000,10 @@
         <v>1343</v>
       </c>
       <c r="G166" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="H166" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9996,13 +10023,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G167" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="H167" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10022,13 +10049,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G168" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="H168" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10048,13 +10075,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G169" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="H169" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10074,13 +10101,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G170" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="H170" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10103,10 +10130,10 @@
         <v>1343</v>
       </c>
       <c r="G171" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="H171" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10126,13 +10153,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="H172" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10155,10 +10182,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="H173" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10181,10 +10208,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="H174" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10204,13 +10231,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G175" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="H175" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10233,10 +10260,10 @@
         <v>1343</v>
       </c>
       <c r="G176" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="H176" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10256,13 +10283,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G177" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="H177" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10282,13 +10309,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G178" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="H178" t="s">
-        <v>1751</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10308,13 +10335,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G179" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="H179" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10334,13 +10361,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G180" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="H180" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10363,10 +10390,10 @@
         <v>1339</v>
       </c>
       <c r="G181" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="H181" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10392,7 +10419,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10415,10 +10442,10 @@
         <v>1285</v>
       </c>
       <c r="G183" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="H183" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10438,13 +10465,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="H184" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10467,10 +10494,10 @@
         <v>1346</v>
       </c>
       <c r="G185" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="H185" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10493,10 +10520,10 @@
         <v>1343</v>
       </c>
       <c r="G186" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="H186" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10516,13 +10543,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G187" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="H187" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10548,7 +10575,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10574,7 +10601,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10600,7 +10627,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10623,10 +10650,10 @@
         <v>1343</v>
       </c>
       <c r="G191" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="H191" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10649,10 +10676,10 @@
         <v>1346</v>
       </c>
       <c r="G192" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="H192" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10672,13 +10699,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G193" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="H193" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10701,10 +10728,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="H194" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10730,7 +10757,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10753,10 +10780,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H196" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10782,7 +10809,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10802,7 +10829,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10822,13 +10849,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G199" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="H199" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10851,10 +10878,10 @@
         <v>1343</v>
       </c>
       <c r="G200" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="H200" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10877,10 +10904,10 @@
         <v>1343</v>
       </c>
       <c r="G201" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="H201" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10900,13 +10927,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G202" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="H202" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10932,7 +10959,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10952,13 +10979,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G204" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="H204" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10981,10 +11008,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="H205" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11004,13 +11031,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G206" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="H206" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11036,7 +11063,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11059,10 +11086,10 @@
         <v>1352</v>
       </c>
       <c r="G208" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="H208" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11082,13 +11109,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G209" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="H209" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11111,10 +11138,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="H210" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11134,13 +11161,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G211" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="H211" t="s">
-        <v>1752</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11160,13 +11187,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G212" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="H212" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11189,10 +11216,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H213" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11212,13 +11239,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G214" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="H214" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11238,13 +11265,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G215" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="H215" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11270,7 +11297,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11290,13 +11317,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G217" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="H217" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11316,13 +11343,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G218" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="H218" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11342,13 +11369,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G219" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="H219" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11368,13 +11395,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G220" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="H220" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11400,7 +11427,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11420,13 +11447,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G222" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="H222" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11446,13 +11473,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G223" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="H223" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11472,13 +11499,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G224" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="H224" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11504,7 +11531,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11530,7 +11557,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11556,7 +11583,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11579,10 +11606,10 @@
         <v>1343</v>
       </c>
       <c r="G228" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="H228" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11602,13 +11629,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G229" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="H229" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11631,10 +11658,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H230" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11660,7 +11687,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11683,10 +11710,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="H232" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11709,10 +11736,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H233" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11735,10 +11762,10 @@
         <v>1339</v>
       </c>
       <c r="G234" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="H234" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11761,10 +11788,10 @@
         <v>1342</v>
       </c>
       <c r="G235" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="H235" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11787,10 +11814,10 @@
         <v>1353</v>
       </c>
       <c r="G236" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="H236" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11813,10 +11840,10 @@
         <v>1346</v>
       </c>
       <c r="G237" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="H237" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11836,13 +11863,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G238" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="H238" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11868,7 +11895,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11888,13 +11915,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G240" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="H240" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11917,10 +11944,10 @@
         <v>1343</v>
       </c>
       <c r="G241" t="s">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="H241" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11940,13 +11967,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G242" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H242" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11969,10 +11996,10 @@
         <v>1346</v>
       </c>
       <c r="G243" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="H243" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11992,13 +12019,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G244" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="H244" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12021,10 +12048,10 @@
         <v>1342</v>
       </c>
       <c r="G245" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="H245" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12050,7 +12077,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12070,13 +12097,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G247" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="H247" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12102,7 +12129,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12122,13 +12149,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G249" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="H249" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12151,10 +12178,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="H250" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12174,13 +12201,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G251" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="H251" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12200,13 +12227,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G252" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="H252" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12226,13 +12253,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G253" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="H253" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12258,7 +12285,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12278,13 +12305,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G255" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="H255" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12307,10 +12334,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H256" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12333,10 +12360,10 @@
         <v>1339</v>
       </c>
       <c r="G257" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="H257" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12359,10 +12386,10 @@
         <v>1285</v>
       </c>
       <c r="G258" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H258" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12388,7 +12415,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12411,10 +12438,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H260" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12434,13 +12461,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G261" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="H261" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12466,7 +12493,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12489,10 +12516,10 @@
         <v>1347</v>
       </c>
       <c r="G263" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="H263" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12512,13 +12539,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G264" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="H264" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12541,10 +12568,10 @@
         <v>1342</v>
       </c>
       <c r="G265" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="H265" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12564,13 +12591,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G266" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="H266" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12590,13 +12617,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G267" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="H267" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12616,13 +12643,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G268" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="H268" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12642,13 +12669,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G269" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="H269" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12674,7 +12701,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12694,13 +12721,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G271" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="H271" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12723,10 +12750,10 @@
         <v>1285</v>
       </c>
       <c r="G272" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H272" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12746,13 +12773,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G273" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="H273" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12775,10 +12802,10 @@
         <v>1353</v>
       </c>
       <c r="G274" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="H274" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12798,13 +12825,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G275" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="H275" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12824,13 +12851,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G276" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="H276" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12853,10 +12880,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H277" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12876,13 +12903,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G278" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="H278" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12902,13 +12929,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G279" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="H279" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12934,7 +12961,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12960,7 +12987,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12980,13 +13007,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G282" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="H282" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13012,7 +13039,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13032,13 +13059,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G284" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="H284" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13058,13 +13085,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G285" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="H285" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13084,13 +13111,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G286" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="H286" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13110,13 +13137,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G287" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="H287" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13139,10 +13166,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="H288" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13165,10 +13192,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1571</v>
+        <v>1648</v>
       </c>
       <c r="H289" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13188,13 +13215,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G290" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="H290" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13214,13 +13241,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G291" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="H291" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13240,13 +13267,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G292" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="H292" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13266,13 +13293,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G293" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="H293" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13295,10 +13322,10 @@
         <v>1343</v>
       </c>
       <c r="G294" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="H294" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13324,7 +13351,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13347,10 +13374,10 @@
         <v>1346</v>
       </c>
       <c r="G296" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H296" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13370,13 +13397,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G297" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="H297" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13396,13 +13423,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G298" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="H298" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13428,7 +13455,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13448,13 +13475,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G300" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="H300" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13474,13 +13501,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G301" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="H301" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13500,13 +13527,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G302" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="H302" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13532,7 +13559,7 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13558,7 +13585,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13584,7 +13611,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13604,13 +13631,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G306" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="H306" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13636,7 +13663,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13659,10 +13686,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H308" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13688,7 +13715,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13714,7 +13741,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13740,7 +13767,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13763,10 +13790,10 @@
         <v>1343</v>
       </c>
       <c r="G312" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="H312" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13792,7 +13819,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13818,7 +13845,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13838,13 +13865,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="G315" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="H315" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13864,13 +13891,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G316" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="H316" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13893,10 +13920,10 @@
         <v>1346</v>
       </c>
       <c r="G317" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H317" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13919,10 +13946,10 @@
         <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="H318" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13941,8 +13968,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13962,13 +13995,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G320" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="H320" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13991,10 +14024,10 @@
         <v>1343</v>
       </c>
       <c r="G321" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="H321" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14014,13 +14047,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G322" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="H322" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14043,10 +14076,10 @@
         <v>1346</v>
       </c>
       <c r="G323" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="H323" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14066,13 +14099,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G324" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="H324" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14098,7 +14131,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14124,7 +14157,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14144,13 +14177,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G327" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="H327" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14173,10 +14206,10 @@
         <v>1343</v>
       </c>
       <c r="G328" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="H328" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14199,10 +14232,10 @@
         <v>1343</v>
       </c>
       <c r="G329" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="H329" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14225,10 +14258,10 @@
         <v>1285</v>
       </c>
       <c r="G330" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="H330" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14248,13 +14281,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G331" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="H331" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14277,10 +14310,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H332" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14300,13 +14333,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G333" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="H333" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14332,7 +14365,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14355,10 +14388,10 @@
         <v>1348</v>
       </c>
       <c r="G335" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="H335" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14381,10 +14414,10 @@
         <v>1347</v>
       </c>
       <c r="G336" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="H336" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14407,10 +14440,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="H337" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14430,13 +14463,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G338" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="H338" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14456,13 +14489,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G339" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H339" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14485,10 +14518,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="H340" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14508,13 +14541,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G341" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="H341" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14537,10 +14570,10 @@
         <v>1346</v>
       </c>
       <c r="G342" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="H342" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14560,13 +14593,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G343" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="H343" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14586,13 +14619,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G344" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="H344" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14615,10 +14648,10 @@
         <v>1343</v>
       </c>
       <c r="G345" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="H345" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14638,13 +14671,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G346" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H346" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14670,7 +14703,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14696,7 +14729,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14722,7 +14755,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14745,10 +14778,10 @@
         <v>1346</v>
       </c>
       <c r="G350" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="H350" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14768,13 +14801,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G351" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="H351" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14794,13 +14827,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G352" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="H352" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14826,7 +14859,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14852,7 +14885,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14872,13 +14905,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G355" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="H355" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14904,7 +14937,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14924,13 +14957,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G357" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="H357" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14953,10 +14986,10 @@
         <v>1346</v>
       </c>
       <c r="G358" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="H358" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14979,10 +15012,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="H359" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15008,7 +15041,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15031,10 +15064,10 @@
         <v>1339</v>
       </c>
       <c r="G361" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H361" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15057,10 +15090,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="H362" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15080,13 +15113,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G363" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="H363" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15106,13 +15139,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G364" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="H364" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15132,13 +15165,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G365" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="H365" t="s">
-        <v>1758</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15161,10 +15194,10 @@
         <v>1343</v>
       </c>
       <c r="G366" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="H366" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15187,10 +15220,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H367" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15213,10 +15246,10 @@
         <v>1343</v>
       </c>
       <c r="G368" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="H368" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15239,10 +15272,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="H369" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15262,13 +15295,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G370" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="H370" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15291,10 +15324,10 @@
         <v>1350</v>
       </c>
       <c r="G371" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="H371" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15314,13 +15347,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G372" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="H372" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15340,13 +15373,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="G373" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="H373" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15366,7 +15399,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15392,7 +15425,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15412,13 +15445,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G376" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="H376" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15438,13 +15471,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G377" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="H377" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15464,13 +15497,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1352</v>
+        <v>1440</v>
       </c>
       <c r="G378" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="H378" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15490,13 +15523,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G379" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="H379" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15519,10 +15552,10 @@
         <v>1343</v>
       </c>
       <c r="G380" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="H380" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15545,10 +15578,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H381" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15568,13 +15601,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="G382" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="H382" t="s">
-        <v>1759</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15594,13 +15627,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="G383" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="H383" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15620,13 +15653,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G384" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="H384" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15646,13 +15679,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G385" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="H385" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15672,13 +15705,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="G386" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="H386" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15704,7 +15737,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15727,10 +15760,10 @@
         <v>1343</v>
       </c>
       <c r="G388" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="H388" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15753,10 +15786,10 @@
         <v>1343</v>
       </c>
       <c r="G389" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="H389" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15779,10 +15812,10 @@
         <v>1294</v>
       </c>
       <c r="G390" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H390" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15805,10 +15838,10 @@
         <v>1352</v>
       </c>
       <c r="G391" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="H391" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15831,10 +15864,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H392" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15857,10 +15890,10 @@
         <v>1343</v>
       </c>
       <c r="G393" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H393" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15880,13 +15913,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G394" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="H394" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15906,13 +15939,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G395" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="H395" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15935,10 +15968,10 @@
         <v>1343</v>
       </c>
       <c r="G396" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="H396" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15958,13 +15991,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G397" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="H397" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15990,7 +16023,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16013,10 +16046,10 @@
         <v>1338</v>
       </c>
       <c r="G399" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="H399" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16036,13 +16069,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G400" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="H400" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16068,7 +16101,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16094,7 +16127,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16117,10 +16150,10 @@
         <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="H403" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16140,13 +16173,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G404" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="H404" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16166,13 +16199,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G405" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="H405" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16198,7 +16231,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16218,13 +16251,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="G407" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="H407" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16247,10 +16280,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1571</v>
+        <v>1648</v>
       </c>
       <c r="H408" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16276,7 +16309,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16302,7 +16335,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16322,13 +16355,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="G411" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="H411" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16351,10 +16384,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H412" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16374,13 +16407,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G413" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="H413" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16400,13 +16433,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G414" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="H414" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16426,13 +16459,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G415" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="H415" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16455,10 +16488,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H416" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16481,10 +16514,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="H417" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16504,13 +16537,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1381</v>
+        <v>1438</v>
       </c>
       <c r="G418" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="H418" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16530,13 +16563,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G419" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="H419" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16556,13 +16589,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="G420" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
       <c r="H420" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16582,13 +16615,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G421" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
       <c r="H421" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16608,13 +16641,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G422" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="H422" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16640,7 +16673,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16666,7 +16699,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16686,13 +16719,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G425" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
       <c r="H425" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16712,13 +16745,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G426" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="H426" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16744,7 +16777,7 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16767,10 +16800,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H428" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16790,7 +16823,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16810,13 +16843,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G430" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="H430" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16839,10 +16872,10 @@
         <v>1343</v>
       </c>
       <c r="G431" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="H431" t="s">
-        <v>1762</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16868,7 +16901,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16888,13 +16921,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G433" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="H433" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16914,13 +16947,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G434" t="s">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="H434" t="s">
-        <v>1758</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16940,13 +16973,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="G435" t="s">
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="H435" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16972,7 +17005,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16992,7 +17025,7 @@
         <v>1294</v>
       </c>
       <c r="H437" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17018,7 +17051,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17041,10 +17074,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="H439" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17064,13 +17097,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G440" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="H440" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17090,13 +17123,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="G441" t="s">
-        <v>1718</v>
+        <v>1724</v>
       </c>
       <c r="H441" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17116,13 +17149,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G442" t="s">
-        <v>1717</v>
+        <v>1723</v>
       </c>
       <c r="H442" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17145,10 +17178,10 @@
         <v>1352</v>
       </c>
       <c r="G443" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="H443" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17171,10 +17204,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H444" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17194,13 +17227,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G445" t="s">
-        <v>1720</v>
+        <v>1726</v>
       </c>
       <c r="H445" t="s">
-        <v>1763</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17223,10 +17256,10 @@
         <v>1339</v>
       </c>
       <c r="G446" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H446" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17249,10 +17282,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="H447" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17275,10 +17308,10 @@
         <v>1339</v>
       </c>
       <c r="G448" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="H448" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17301,10 +17334,10 @@
         <v>1339</v>
       </c>
       <c r="G449" t="s">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="H449" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17330,7 +17363,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17356,7 +17389,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17382,7 +17415,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17402,13 +17435,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="G453" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="H453" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17428,13 +17461,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="G454" t="s">
-        <v>1725</v>
+        <v>1731</v>
       </c>
       <c r="H454" t="s">
-        <v>1750</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17454,13 +17487,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1342</v>
+        <v>1379</v>
       </c>
       <c r="G455" t="s">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="H455" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17480,13 +17513,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G456" t="s">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="H456" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17509,10 +17542,10 @@
         <v>1352</v>
       </c>
       <c r="G457" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="H457" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17538,7 +17571,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1764</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17558,13 +17591,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="G459" t="s">
-        <v>1728</v>
+        <v>1734</v>
       </c>
       <c r="H459" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17590,7 +17623,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17610,13 +17643,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G461" t="s">
-        <v>1729</v>
+        <v>1735</v>
       </c>
       <c r="H461" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17642,7 +17675,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17662,13 +17695,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1358</v>
       </c>
       <c r="G463" t="s">
-        <v>1521</v>
+        <v>1736</v>
       </c>
       <c r="H463" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/plsa-partial-ner-elmo_ori.xlsx
+++ b/Results/Categorization/plsa-partial-ner-elmo_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1766">
   <si>
     <t>id</t>
   </si>
@@ -4027,352 +4027,334 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>PRICES|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES</t>
@@ -5736,10 +5718,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="H2" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5765,7 +5747,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5788,10 +5770,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="H4" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5811,13 +5793,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="H5" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5840,10 +5822,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="H6" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5866,10 +5848,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="H7" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5889,13 +5871,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G8" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="H8" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5918,10 +5900,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="H9" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5944,10 +5926,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="H10" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5967,13 +5949,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H11" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5999,7 +5981,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6019,13 +6001,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H13" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6045,13 +6027,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G14" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="H14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6071,13 +6053,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="H15" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6097,13 +6079,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="H16" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6123,13 +6105,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G17" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="H17" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6149,13 +6131,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="H18" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6181,7 +6163,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6204,10 +6186,10 @@
         <v>1346</v>
       </c>
       <c r="G20" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H20" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6227,13 +6209,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6259,7 +6241,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6279,13 +6261,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="G23" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="H23" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6308,10 +6290,10 @@
         <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H24" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6337,7 +6319,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6363,7 +6345,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6389,7 +6371,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6409,13 +6391,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H28" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6435,13 +6417,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G29" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="H29" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6461,13 +6443,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G30" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="H30" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6487,13 +6469,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="H31" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6519,7 +6501,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6542,10 +6524,10 @@
         <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="H33" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6565,13 +6547,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G34" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="H34" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6594,10 +6576,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H35" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6617,13 +6599,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G36" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="H36" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6643,13 +6625,13 @@
         <v>1276</v>
       </c>
       <c r="F37" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G37" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="H37" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6669,13 +6651,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G38" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="H38" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6695,13 +6677,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G39" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H39" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6721,13 +6703,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G40" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="H40" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6747,13 +6729,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G41" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="H41" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6773,13 +6755,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G42" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="H42" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6799,13 +6781,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="H43" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6831,7 +6813,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6857,7 +6839,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6883,7 +6865,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6903,13 +6885,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H47" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6929,13 +6911,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="G48" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="H48" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6955,13 +6937,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="G49" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="H49" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6981,13 +6963,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G50" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H50" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7007,13 +6989,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G51" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="H51" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7033,13 +7015,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="H52" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7059,13 +7041,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="H53" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7085,13 +7067,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H54" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7111,13 +7093,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="G55" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="H55" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7137,13 +7119,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="G56" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="H56" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7163,13 +7145,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H57" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7189,13 +7171,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H58" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7215,13 +7197,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G59" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H59" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7241,13 +7223,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="H60" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7273,7 +7255,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7293,13 +7275,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G62" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="H62" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7319,13 +7301,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G63" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H63" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7345,13 +7327,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G64" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H64" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7371,13 +7353,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G65" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="H65" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7397,13 +7379,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="G66" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="H66" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7423,13 +7405,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G67" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H67" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7455,7 +7437,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7478,10 +7460,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H69" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7501,13 +7483,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H70" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7533,7 +7515,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7553,13 +7535,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
       <c r="G72" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="H72" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7579,13 +7561,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G73" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H73" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7605,13 +7587,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="H74" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7637,7 +7619,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7657,13 +7639,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G76" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="H76" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7683,13 +7665,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G77" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H77" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7709,13 +7691,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G78" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H78" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7735,13 +7717,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="H79" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7764,10 +7746,10 @@
         <v>1338</v>
       </c>
       <c r="G80" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="H80" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7790,10 +7772,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H81" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7813,13 +7795,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G82" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H82" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7845,7 +7827,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7871,7 +7853,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7891,13 +7873,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G85" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H85" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7920,10 +7902,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H86" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7943,13 +7925,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1352</v>
+        <v>1368</v>
       </c>
       <c r="G87" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="H87" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7969,13 +7951,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G88" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H88" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7995,13 +7977,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H89" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8027,7 +8009,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8047,13 +8029,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G91" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H91" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8076,10 +8058,10 @@
         <v>1338</v>
       </c>
       <c r="G92" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H92" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8099,13 +8081,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="G93" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H93" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8125,13 +8107,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="G94" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="H94" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8151,13 +8133,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1376</v>
+        <v>1342</v>
       </c>
       <c r="G95" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H95" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8177,13 +8159,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G96" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H96" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8203,13 +8185,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G97" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="H97" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8229,13 +8211,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G98" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="H98" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8255,13 +8237,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H99" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8281,13 +8263,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="G100" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H100" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8307,13 +8289,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H101" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8333,13 +8315,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G102" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="H102" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8359,13 +8341,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G103" t="s">
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8385,13 +8367,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="H104" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8417,7 +8399,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8437,13 +8419,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="G106" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="H106" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8463,13 +8445,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
       <c r="G107" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="H107" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8489,13 +8471,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="G108" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="H108" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8515,13 +8497,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H109" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8541,13 +8523,13 @@
         <v>1276</v>
       </c>
       <c r="F110" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="H110" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8570,10 +8552,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H111" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8593,13 +8575,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G112" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H112" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8625,7 +8607,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8651,7 +8633,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8671,13 +8653,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="G115" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="H115" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8697,13 +8679,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G116" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="H116" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8723,13 +8705,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1380</v>
+        <v>1338</v>
       </c>
       <c r="G117" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="H117" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8749,13 +8731,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G118" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="H118" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8775,13 +8757,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1382</v>
+        <v>1356</v>
       </c>
       <c r="G119" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="H119" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8807,7 +8789,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8833,7 +8815,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8859,7 +8841,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8885,7 +8867,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8905,13 +8887,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1383</v>
+        <v>1339</v>
       </c>
       <c r="G124" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="H124" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8931,13 +8913,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="H125" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8963,7 +8945,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8983,13 +8965,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H127" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9009,13 +8991,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G128" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="H128" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9035,13 +9017,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1384</v>
+        <v>1356</v>
       </c>
       <c r="G129" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="H129" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9061,13 +9043,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="G130" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="H130" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9087,13 +9069,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G131" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="H131" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9113,13 +9095,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1338</v>
+        <v>1375</v>
       </c>
       <c r="G132" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="H132" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9139,13 +9121,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="G133" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="H133" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9165,13 +9147,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G134" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="H134" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9191,13 +9173,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G135" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="H135" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9217,13 +9199,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G136" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H136" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9243,13 +9225,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G137" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="H137" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9269,13 +9251,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G138" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="H138" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9295,13 +9277,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="G139" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="H139" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9321,13 +9303,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="H140" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9353,7 +9335,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9373,13 +9355,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="G142" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="H142" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9399,13 +9381,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G143" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H143" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9425,13 +9407,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="G144" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H144" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9451,13 +9433,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G145" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="H145" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9477,13 +9459,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G146" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H146" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9509,7 +9491,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9529,13 +9511,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="H148" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9555,13 +9537,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G149" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="H149" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9581,13 +9563,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="G150" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="H150" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9607,13 +9589,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="G151" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="H151" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9636,10 +9618,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="H152" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9659,13 +9641,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="G153" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="H153" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9685,13 +9667,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G154" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="H154" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9711,13 +9693,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="H155" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9737,13 +9719,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="H156" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9763,13 +9745,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H157" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9789,13 +9771,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G158" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H158" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9815,13 +9797,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="G159" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="H159" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9841,13 +9823,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G160" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="H160" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9873,7 +9855,7 @@
         <v>1032</v>
       </c>
       <c r="H161" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9893,13 +9875,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1357</v>
+        <v>1379</v>
       </c>
       <c r="G162" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="H162" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9925,7 +9907,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9945,13 +9927,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G164" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="H164" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9971,13 +9953,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="G165" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="H165" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9997,13 +9979,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G166" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="H166" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10023,13 +10005,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="H167" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10049,13 +10031,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G168" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="H168" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10075,13 +10057,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="G169" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="H169" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10101,13 +10083,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="G170" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="H170" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10127,13 +10109,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="H171" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10156,10 +10138,10 @@
         <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="H172" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10182,10 +10164,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="H173" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10208,10 +10190,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="H174" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10231,13 +10213,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="G175" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="H175" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10257,13 +10239,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1343</v>
+        <v>1374</v>
       </c>
       <c r="G176" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="H176" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10283,13 +10265,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
       <c r="G177" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="H177" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10309,13 +10291,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="G178" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="H178" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10335,13 +10317,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="G179" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="H179" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10361,13 +10343,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="G180" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="H180" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10387,13 +10369,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G181" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="H181" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10419,7 +10401,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10439,13 +10421,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H183" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10468,10 +10450,10 @@
         <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="H184" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10491,13 +10473,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G185" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H185" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10517,13 +10499,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G186" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="H186" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10543,13 +10525,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="H187" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10575,7 +10557,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10601,7 +10583,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10627,7 +10609,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10647,13 +10629,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G191" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="H191" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10673,13 +10655,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G192" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="H192" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10699,13 +10681,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1397</v>
+        <v>1348</v>
       </c>
       <c r="G193" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="H193" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10728,10 +10710,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="H194" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10757,7 +10739,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10780,10 +10762,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H196" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10809,7 +10791,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10829,7 +10811,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10849,13 +10831,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="H199" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10875,13 +10857,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G200" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H200" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10901,13 +10883,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G201" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H201" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10927,13 +10909,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="G202" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="H202" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10959,7 +10941,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10979,13 +10961,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1399</v>
+        <v>1370</v>
       </c>
       <c r="G204" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="H204" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11008,10 +10990,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="H205" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11031,13 +11013,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="G206" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="H206" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11063,7 +11045,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11083,13 +11065,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="H208" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11109,13 +11091,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="G209" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="H209" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11138,10 +11120,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="H210" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11161,13 +11143,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="G211" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="H211" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11187,13 +11169,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G212" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="H212" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11216,10 +11198,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H213" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11239,13 +11221,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
       <c r="G214" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="H214" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11265,13 +11247,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G215" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="H215" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11297,7 +11279,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11317,13 +11299,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="G217" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="H217" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11343,13 +11325,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="G218" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="H218" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11369,13 +11351,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="G219" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="H219" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11395,13 +11377,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="G220" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="H220" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11427,7 +11409,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11447,13 +11429,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1406</v>
+        <v>1346</v>
       </c>
       <c r="G222" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="H222" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11473,13 +11455,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="G223" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="H223" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11499,13 +11481,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="G224" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="H224" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11531,7 +11513,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11557,7 +11539,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11583,7 +11565,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11603,13 +11585,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G228" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="H228" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11629,13 +11611,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G229" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="H229" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11658,10 +11640,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H230" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11687,7 +11669,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11710,10 +11692,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="H232" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11736,10 +11718,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H233" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11759,13 +11741,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G234" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="H234" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11785,13 +11767,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G235" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="H235" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11811,13 +11793,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1353</v>
+        <v>1398</v>
       </c>
       <c r="G236" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="H236" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11837,13 +11819,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G237" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="H237" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11863,13 +11845,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="G238" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="H238" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11895,7 +11877,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11915,13 +11897,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1411</v>
+        <v>1383</v>
       </c>
       <c r="G240" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="H240" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11941,13 +11923,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G241" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="H241" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11967,13 +11949,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G242" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H242" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11996,10 +11978,10 @@
         <v>1346</v>
       </c>
       <c r="G243" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H243" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12019,13 +12001,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1392</v>
+        <v>1346</v>
       </c>
       <c r="G244" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="H244" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12048,10 +12030,10 @@
         <v>1342</v>
       </c>
       <c r="G245" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="H245" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12077,7 +12059,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12097,13 +12079,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1406</v>
+        <v>1345</v>
       </c>
       <c r="G247" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="H247" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12129,7 +12111,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12149,13 +12131,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="G249" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="H249" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12178,10 +12160,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="H250" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12201,13 +12183,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="G251" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="H251" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12227,13 +12209,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="G252" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="H252" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12253,13 +12235,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1406</v>
+        <v>1374</v>
       </c>
       <c r="G253" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="H253" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12285,7 +12267,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12305,13 +12287,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G255" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="H255" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12334,10 +12316,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H256" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12360,10 +12342,10 @@
         <v>1339</v>
       </c>
       <c r="G257" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H257" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12383,13 +12365,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G258" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H258" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12415,7 +12397,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12438,10 +12420,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H260" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12461,13 +12443,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
       <c r="G261" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="H261" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12493,7 +12475,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12513,13 +12495,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1347</v>
+        <v>1403</v>
       </c>
       <c r="G263" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="H263" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12539,13 +12521,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="G264" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="H264" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12565,13 +12547,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G265" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="H265" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12591,13 +12573,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G266" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="H266" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12617,13 +12599,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="G267" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="H267" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12643,13 +12625,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1373</v>
+        <v>1406</v>
       </c>
       <c r="G268" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="H268" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12669,13 +12651,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G269" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="H269" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12701,7 +12683,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12721,13 +12703,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="G271" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="H271" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12747,13 +12729,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G272" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H272" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12773,13 +12755,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G273" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="H273" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12799,13 +12781,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1353</v>
+        <v>1407</v>
       </c>
       <c r="G274" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="H274" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12825,13 +12807,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="G275" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="H275" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12851,13 +12833,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="G276" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="H276" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12880,10 +12862,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H277" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12903,13 +12885,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1406</v>
+        <v>1346</v>
       </c>
       <c r="G278" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="H278" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12929,13 +12911,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="G279" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="H279" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12961,7 +12943,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12981,13 +12963,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G281" t="s">
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13007,13 +12989,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="G282" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="H282" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13033,13 +13015,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G283" t="s">
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13059,13 +13041,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="G284" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="H284" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13085,13 +13067,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G285" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="H285" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13111,13 +13093,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G286" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="H286" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13137,13 +13119,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="G287" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="H287" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13163,13 +13145,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G288" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H288" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13189,13 +13171,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G289" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="H289" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13215,13 +13197,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="G290" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="H290" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13241,13 +13223,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1406</v>
+        <v>1346</v>
       </c>
       <c r="G291" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="H291" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13267,13 +13249,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1392</v>
+        <v>1346</v>
       </c>
       <c r="G292" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="H292" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13293,13 +13275,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1425</v>
+        <v>1365</v>
       </c>
       <c r="G293" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="H293" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13319,13 +13301,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G294" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="H294" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13351,7 +13333,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13371,13 +13353,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G296" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="H296" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13397,13 +13379,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="G297" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="H297" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13423,13 +13405,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1425</v>
+        <v>1365</v>
       </c>
       <c r="G298" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="H298" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13455,7 +13437,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13475,13 +13457,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1392</v>
+        <v>1351</v>
       </c>
       <c r="G300" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="H300" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13501,13 +13483,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="G301" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="H301" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13527,13 +13509,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="G302" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="H302" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13553,13 +13535,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G303" t="s">
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13585,7 +13567,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13611,7 +13593,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13631,13 +13613,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1406</v>
+        <v>1346</v>
       </c>
       <c r="G306" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="H306" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13663,7 +13645,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13686,10 +13668,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H308" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13715,7 +13697,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13741,7 +13723,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13767,7 +13749,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13787,13 +13769,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G312" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="H312" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13819,7 +13801,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13845,7 +13827,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13865,13 +13847,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="G315" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="H315" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13891,13 +13873,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="G316" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="H316" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13917,13 +13899,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G317" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="H317" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13946,10 +13928,10 @@
         <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H318" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13975,7 +13957,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13995,13 +13977,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1385</v>
+        <v>1407</v>
       </c>
       <c r="G320" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="H320" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14021,13 +14003,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G321" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="H321" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14047,13 +14029,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1425</v>
+        <v>1349</v>
       </c>
       <c r="G322" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="H322" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14076,10 +14058,10 @@
         <v>1346</v>
       </c>
       <c r="G323" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H323" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14099,13 +14081,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G324" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H324" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14131,7 +14113,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14157,7 +14139,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14177,13 +14159,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1406</v>
+        <v>1346</v>
       </c>
       <c r="G327" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="H327" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14203,13 +14185,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1343</v>
+        <v>1419</v>
       </c>
       <c r="G328" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="H328" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14229,13 +14211,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G329" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="H329" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14255,13 +14237,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H330" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14281,13 +14263,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="G331" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="H331" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14307,13 +14289,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G332" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H332" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14333,13 +14315,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
       <c r="G333" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="H333" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14365,7 +14347,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14385,13 +14367,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1348</v>
+        <v>1421</v>
       </c>
       <c r="G335" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="H335" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14411,13 +14393,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1347</v>
+        <v>1407</v>
       </c>
       <c r="G336" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="H336" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14437,13 +14419,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1342</v>
+        <v>1397</v>
       </c>
       <c r="G337" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="H337" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14463,13 +14445,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1373</v>
+        <v>1422</v>
       </c>
       <c r="G338" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="H338" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14489,13 +14471,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="G339" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="H339" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14515,13 +14497,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="H340" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14541,13 +14523,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1373</v>
+        <v>1424</v>
       </c>
       <c r="G341" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="H341" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14567,13 +14549,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G342" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H342" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14593,13 +14575,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="G343" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="H343" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14619,13 +14601,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="G344" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="H344" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14645,13 +14627,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G345" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H345" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14671,13 +14653,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="G346" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="H346" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14703,7 +14685,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14729,7 +14711,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14755,7 +14737,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14778,10 +14760,10 @@
         <v>1346</v>
       </c>
       <c r="G350" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H350" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14801,13 +14783,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G351" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="H351" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14827,13 +14809,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="G352" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="H352" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14859,7 +14841,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14885,7 +14867,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14905,13 +14887,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="G355" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="H355" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14937,7 +14919,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14957,13 +14939,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="G357" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="H357" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14986,10 +14968,10 @@
         <v>1346</v>
       </c>
       <c r="G358" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H358" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15012,10 +14994,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="H359" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15041,7 +15023,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15061,13 +15043,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G361" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H361" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15087,13 +15069,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G362" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="H362" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15113,13 +15095,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="G363" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="H363" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15139,13 +15121,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1425</v>
+        <v>1349</v>
       </c>
       <c r="G364" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="H364" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15165,13 +15147,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G365" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="H365" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15191,13 +15173,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G366" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="H366" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15220,10 +15202,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H367" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15243,13 +15225,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G368" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="H368" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15269,13 +15251,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G369" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="H369" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15295,13 +15277,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1438</v>
+        <v>1379</v>
       </c>
       <c r="G370" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="H370" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15321,13 +15303,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="G371" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="H371" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15347,13 +15329,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
       <c r="G372" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="H372" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15373,13 +15355,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1396</v>
+        <v>1431</v>
       </c>
       <c r="G373" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="H373" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15399,7 +15381,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15425,7 +15407,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15445,13 +15427,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="G376" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="H376" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15471,13 +15453,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="G377" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="H377" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15497,13 +15479,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="G378" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="H378" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15523,13 +15505,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="G379" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="H379" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15549,13 +15531,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G380" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="H380" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15578,10 +15560,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H381" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15601,13 +15583,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="G382" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="H382" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15627,13 +15609,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="G383" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="H383" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15653,13 +15635,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="G384" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="H384" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15679,13 +15661,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G385" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H385" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15705,13 +15687,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="G386" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="H386" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15737,7 +15719,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15757,13 +15739,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G388" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="H388" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15783,13 +15765,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G389" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="H389" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15809,13 +15791,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G390" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H390" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15835,13 +15817,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G391" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="H391" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15864,10 +15846,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H392" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15887,13 +15869,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G393" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="H393" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15913,13 +15895,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="G394" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="H394" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15939,13 +15921,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="G395" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="H395" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15965,13 +15947,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G396" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="H396" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15991,13 +15973,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="G397" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="H397" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16023,7 +16005,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16043,13 +16025,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1338</v>
+        <v>1375</v>
       </c>
       <c r="G399" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="H399" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16069,13 +16051,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1410</v>
+        <v>1348</v>
       </c>
       <c r="G400" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="H400" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16101,7 +16083,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16127,7 +16109,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16147,13 +16129,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G403" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="H403" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16173,13 +16155,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="H404" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16199,13 +16181,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="G405" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="H405" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16231,7 +16213,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16251,13 +16233,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1446</v>
+        <v>1360</v>
       </c>
       <c r="G407" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="H407" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16280,10 +16262,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="H408" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16309,7 +16291,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16335,7 +16317,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16355,13 +16337,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1447</v>
+        <v>1412</v>
       </c>
       <c r="G411" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="H411" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16381,13 +16363,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H412" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16407,13 +16389,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G413" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H413" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16433,13 +16415,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G414" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="H414" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16459,13 +16441,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1383</v>
+        <v>1440</v>
       </c>
       <c r="G415" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="H415" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16488,10 +16470,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H416" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16514,10 +16496,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H417" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16537,13 +16519,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1438</v>
+        <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="H418" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16563,13 +16545,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G419" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H419" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16589,13 +16571,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="G420" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="H420" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16615,13 +16597,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="G421" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="H421" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16641,13 +16623,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1358</v>
+        <v>1380</v>
       </c>
       <c r="G422" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H422" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16673,7 +16655,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16699,7 +16681,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16719,13 +16701,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
       <c r="G425" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="H425" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16745,13 +16727,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="G426" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="H426" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16771,13 +16753,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16800,10 +16782,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H428" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16823,7 +16805,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16843,13 +16825,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G430" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="H430" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16869,13 +16851,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1343</v>
+        <v>1365</v>
       </c>
       <c r="G431" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="H431" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16901,7 +16883,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16921,13 +16903,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1380</v>
+        <v>1442</v>
       </c>
       <c r="G433" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="H433" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16947,13 +16929,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1372</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="H434" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16973,13 +16955,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="G435" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="H435" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17005,7 +16987,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17025,7 +17007,7 @@
         <v>1294</v>
       </c>
       <c r="H437" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17051,7 +17033,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17074,10 +17056,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="H439" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17097,13 +17079,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="G440" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="H440" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17123,13 +17105,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1450</v>
+        <v>1356</v>
       </c>
       <c r="G441" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="H441" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17149,13 +17131,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="G442" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="H442" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17175,13 +17157,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1352</v>
+        <v>1368</v>
       </c>
       <c r="G443" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="H443" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17204,10 +17186,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H444" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17227,13 +17209,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="G445" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="H445" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17253,13 +17235,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G446" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H446" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17282,10 +17264,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="H447" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17305,13 +17287,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G448" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="H448" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17331,13 +17313,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G449" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="H449" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17363,7 +17345,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17389,7 +17371,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17415,7 +17397,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17435,13 +17417,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="G453" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="H453" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17461,13 +17443,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="G454" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="H454" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17487,13 +17469,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="G455" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="H455" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17513,13 +17495,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1439</v>
+        <v>1412</v>
       </c>
       <c r="G456" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="H456" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17539,13 +17521,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G457" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="H457" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17571,7 +17553,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17591,13 +17573,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="G459" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="H459" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17623,7 +17605,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17643,13 +17625,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="G461" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="H461" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17675,7 +17657,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17695,13 +17677,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="G463" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="H463" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
